--- a/汽柴煤油2.0/eta/EB-SC（期货指数）_月度数据.xlsx
+++ b/汽柴煤油2.0/eta/EB-SC（期货指数）_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>3713.6817</v>
+        <v>3827.3293</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3220.7917</v>
+        <v>3191.9107</v>
       </c>
       <c r="C3" t="n">
-        <v>3251.4864</v>
+        <v>3201.3299</v>
       </c>
     </row>
     <row r="4">
